--- a/PricerAndQutation/OptionPricer_v2_20171219_night.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20171219_night.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="offer_van combo" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="220">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -788,6 +788,17 @@
   </si>
   <si>
     <t>cf1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3791|3291</t>
+  </si>
+  <si>
+    <t>put sprd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1460,66 +1471,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="29" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1562,6 +1513,66 @@
     <xf numFmtId="0" fontId="28" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1586,8 +1597,8 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="wdf.rtq">
-      <tp>
-        <v>3791</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
@@ -1595,14 +1606,14 @@
         <tr r="H8" s="8"/>
         <tr r="H8" s="7"/>
       </tp>
-      <tp>
-        <v>3587</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>RB1810</stp>
         <stp>LastPrice</stp>
+        <tr r="H12" s="1"/>
         <tr r="H10" s="1"/>
         <tr r="H11" s="1"/>
-        <tr r="H12" s="1"/>
         <tr r="H13" s="1"/>
       </tp>
     </main>
@@ -1898,10 +1909,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1920,11 +1931,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:17" ht="12" thickTop="1"/>
     <row r="3" spans="1:17">
@@ -2571,6 +2582,114 @@
       </c>
       <c r="Q20" s="59">
         <v>20.18956137971486</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="N21" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="P21" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q21" s="49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="56">
+        <v>3791</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="57">
+        <v>43088</v>
+      </c>
+      <c r="I22" s="57">
+        <v>43119</v>
+      </c>
+      <c r="J22" s="55">
+        <v>31</v>
+      </c>
+      <c r="K22" s="58">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="L22" s="58"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="59">
+        <v>-120.6201212601914</v>
+      </c>
+      <c r="O22" s="55">
+        <v>0</v>
+      </c>
+      <c r="P22" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="59">
+        <v>120.6201212601914</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="G29" s="6">
+        <v>120.62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="G30" s="6">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="G31" s="6">
+        <f>G29/G30</f>
+        <v>3.1817462410973357E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2601,63 +2720,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="121"/>
+      <c r="C1" s="138"/>
     </row>
     <row r="2" spans="2:20" ht="12" thickTop="1"/>
     <row r="3" spans="2:20" ht="12.75" thickBot="1">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="139" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="G3" s="117" t="s">
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="G3" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="L3" s="120" t="s">
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="L3" s="139" t="s">
         <v>192</v>
       </c>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="Q3" s="117" t="s">
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="Q3" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
     </row>
     <row r="4" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="G4" s="118" t="s">
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="G4" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="L4" s="118" t="s">
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="L4" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="Q4" s="118" t="s">
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="Q4" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
     </row>
     <row r="5" spans="2:20" ht="14.25" thickTop="1">
       <c r="B5" s="33" t="s">
@@ -2666,10 +2785,10 @@
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
-      <c r="G5" s="116" t="s">
+      <c r="G5" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="116"/>
+      <c r="H5" s="137"/>
       <c r="I5" s="35"/>
       <c r="J5" s="36"/>
       <c r="L5" s="33" t="s">
@@ -2678,360 +2797,360 @@
       <c r="M5" s="34"/>
       <c r="N5" s="35"/>
       <c r="O5" s="36"/>
-      <c r="Q5" s="116" t="s">
+      <c r="Q5" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="116"/>
+      <c r="R5" s="137"/>
       <c r="S5" s="35"/>
       <c r="T5" s="36"/>
     </row>
     <row r="6" spans="2:20" ht="13.5">
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114" t="s">
+      <c r="C6" s="124"/>
+      <c r="D6" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="G6" s="116" t="s">
+      <c r="E6" s="126"/>
+      <c r="G6" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="116"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
-      <c r="L6" s="113" t="s">
+      <c r="H6" s="137"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
+      <c r="L6" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="113"/>
-      <c r="N6" s="114" t="s">
+      <c r="M6" s="124"/>
+      <c r="N6" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="115"/>
-      <c r="Q6" s="116" t="s">
+      <c r="O6" s="126"/>
+      <c r="Q6" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="116"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="115"/>
+      <c r="R6" s="137"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="126"/>
     </row>
     <row r="7" spans="2:20" ht="13.5">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114" t="s">
+      <c r="C7" s="124"/>
+      <c r="D7" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="G7" s="116" t="s">
+      <c r="E7" s="126"/>
+      <c r="G7" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="116"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
-      <c r="L7" s="113" t="s">
+      <c r="H7" s="137"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
+      <c r="L7" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="113"/>
-      <c r="N7" s="114" t="s">
+      <c r="M7" s="124"/>
+      <c r="N7" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="115"/>
-      <c r="Q7" s="116" t="s">
+      <c r="O7" s="126"/>
+      <c r="Q7" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="116"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="115"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="126"/>
     </row>
     <row r="8" spans="2:20" ht="13.5">
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="114">
+      <c r="C8" s="124"/>
+      <c r="D8" s="125">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="115"/>
-      <c r="G8" s="116" t="s">
+      <c r="E8" s="126"/>
+      <c r="G8" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115"/>
-      <c r="L8" s="113" t="s">
+      <c r="H8" s="137"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="126"/>
+      <c r="L8" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="113"/>
-      <c r="N8" s="114">
+      <c r="M8" s="124"/>
+      <c r="N8" s="125">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="115"/>
-      <c r="Q8" s="116" t="s">
+      <c r="O8" s="126"/>
+      <c r="Q8" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="116"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="115"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="126"/>
     </row>
     <row r="9" spans="2:20" ht="13.5">
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="124" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114" t="s">
+      <c r="C9" s="124"/>
+      <c r="D9" s="125" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="115"/>
-      <c r="G9" s="116" t="s">
+      <c r="E9" s="126"/>
+      <c r="G9" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="115"/>
-      <c r="L9" s="113" t="s">
+      <c r="H9" s="137"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="126"/>
+      <c r="L9" s="124" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="113"/>
-      <c r="N9" s="114" t="s">
+      <c r="M9" s="124"/>
+      <c r="N9" s="125" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="115"/>
-      <c r="Q9" s="116" t="s">
+      <c r="O9" s="126"/>
+      <c r="Q9" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="116"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="115"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="126"/>
     </row>
     <row r="10" spans="2:20" ht="13.5">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114">
+      <c r="C10" s="124"/>
+      <c r="D10" s="125">
         <v>43084</v>
       </c>
-      <c r="E10" s="115"/>
+      <c r="E10" s="126"/>
       <c r="G10" s="30" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
-      <c r="L10" s="113" t="s">
+      <c r="I10" s="125"/>
+      <c r="J10" s="126"/>
+      <c r="L10" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="113"/>
-      <c r="N10" s="114">
+      <c r="M10" s="124"/>
+      <c r="N10" s="125">
         <v>43084</v>
       </c>
-      <c r="O10" s="115"/>
+      <c r="O10" s="126"/>
       <c r="Q10" s="62" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="62"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="115"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="126"/>
     </row>
     <row r="11" spans="2:20" ht="13.5">
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="124" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="114">
+      <c r="C11" s="124"/>
+      <c r="D11" s="125">
         <v>3935</v>
       </c>
-      <c r="E11" s="115"/>
-      <c r="G11" s="116" t="s">
+      <c r="E11" s="126"/>
+      <c r="G11" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="116"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
-      <c r="L11" s="113" t="s">
+      <c r="H11" s="137"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="126"/>
+      <c r="L11" s="124" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="113"/>
-      <c r="N11" s="114">
+      <c r="M11" s="124"/>
+      <c r="N11" s="125">
         <v>3935</v>
       </c>
-      <c r="O11" s="115"/>
-      <c r="Q11" s="116" t="s">
+      <c r="O11" s="126"/>
+      <c r="Q11" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="116"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="115"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="126"/>
     </row>
     <row r="12" spans="2:20" ht="13.5">
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="124" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="114">
+      <c r="C12" s="124"/>
+      <c r="D12" s="125">
         <v>3800</v>
       </c>
-      <c r="E12" s="115"/>
-      <c r="G12" s="116" t="s">
+      <c r="E12" s="126"/>
+      <c r="G12" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="116"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
-      <c r="L12" s="113" t="s">
+      <c r="H12" s="137"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="126"/>
+      <c r="L12" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="M12" s="113"/>
-      <c r="N12" s="114">
+      <c r="M12" s="124"/>
+      <c r="N12" s="125">
         <v>3800</v>
       </c>
-      <c r="O12" s="115"/>
-      <c r="Q12" s="116" t="s">
+      <c r="O12" s="126"/>
+      <c r="Q12" s="137" t="s">
         <v>194</v>
       </c>
-      <c r="R12" s="116"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="115"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="126"/>
     </row>
     <row r="13" spans="2:20" ht="13.5">
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="124" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="114">
+      <c r="C13" s="124"/>
+      <c r="D13" s="125">
         <v>61</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="G13" s="116" t="s">
+      <c r="E13" s="126"/>
+      <c r="G13" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="116"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-      <c r="L13" s="113" t="s">
+      <c r="H13" s="137"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="126"/>
+      <c r="L13" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="M13" s="113"/>
-      <c r="N13" s="114">
+      <c r="M13" s="124"/>
+      <c r="N13" s="125">
         <v>3800</v>
       </c>
-      <c r="O13" s="115"/>
-      <c r="Q13" s="116" t="s">
+      <c r="O13" s="126"/>
+      <c r="Q13" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="R13" s="116"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="115"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="126"/>
     </row>
     <row r="14" spans="2:20" ht="13.5">
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="114" t="s">
+      <c r="C14" s="124"/>
+      <c r="D14" s="125" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="115"/>
-      <c r="G14" s="116" t="s">
+      <c r="E14" s="126"/>
+      <c r="G14" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="116"/>
+      <c r="H14" s="137"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
-      <c r="L14" s="113" t="s">
+      <c r="L14" s="124" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="113"/>
-      <c r="N14" s="114">
+      <c r="M14" s="124"/>
+      <c r="N14" s="125">
         <v>61</v>
       </c>
-      <c r="O14" s="115"/>
-      <c r="Q14" s="116" t="s">
+      <c r="O14" s="126"/>
+      <c r="Q14" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="116"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="115"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="126"/>
     </row>
     <row r="15" spans="2:20" ht="13.5">
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="114">
+      <c r="C15" s="124"/>
+      <c r="D15" s="125">
         <v>5000</v>
       </c>
-      <c r="E15" s="115"/>
-      <c r="G15" s="116" t="s">
+      <c r="E15" s="126"/>
+      <c r="G15" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="116"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
-      <c r="L15" s="113" t="s">
+      <c r="H15" s="137"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="126"/>
+      <c r="L15" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="113"/>
-      <c r="N15" s="114" t="s">
+      <c r="M15" s="124"/>
+      <c r="N15" s="125" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="115"/>
-      <c r="Q15" s="116" t="s">
+      <c r="O15" s="126"/>
+      <c r="Q15" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="116"/>
+      <c r="R15" s="137"/>
       <c r="S15" s="60"/>
       <c r="T15" s="61"/>
     </row>
     <row r="16" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="111" t="s">
+      <c r="C16" s="129"/>
+      <c r="D16" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="G16" s="110" t="s">
+      <c r="E16" s="131"/>
+      <c r="G16" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="112"/>
-      <c r="L16" s="113" t="s">
+      <c r="H16" s="132"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="131"/>
+      <c r="L16" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="113"/>
-      <c r="N16" s="114">
+      <c r="M16" s="124"/>
+      <c r="N16" s="125">
         <v>5000</v>
       </c>
-      <c r="O16" s="115"/>
-      <c r="Q16" s="116" t="s">
+      <c r="O16" s="126"/>
+      <c r="Q16" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="116"/>
-      <c r="S16" s="114"/>
-      <c r="T16" s="115"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="126"/>
     </row>
     <row r="17" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="L17" s="119" t="s">
+      <c r="L17" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="119"/>
-      <c r="N17" s="111" t="s">
+      <c r="M17" s="129"/>
+      <c r="N17" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="112"/>
-      <c r="Q17" s="110" t="s">
+      <c r="O17" s="131"/>
+      <c r="Q17" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="110"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="112"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="131"/>
     </row>
     <row r="18" spans="2:20" ht="12" thickTop="1"/>
     <row r="19" spans="2:20" ht="13.5">
@@ -3046,213 +3165,160 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
     </row>
     <row r="23" spans="2:20" ht="14.25" thickTop="1">
       <c r="B23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="34"/>
-      <c r="D23" s="125">
+      <c r="D23" s="135">
         <v>43084</v>
       </c>
-      <c r="E23" s="126"/>
+      <c r="E23" s="136"/>
     </row>
     <row r="24" spans="2:20" ht="13.5">
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="114" t="s">
+      <c r="C24" s="124"/>
+      <c r="D24" s="125" t="s">
         <v>208</v>
       </c>
-      <c r="E24" s="115"/>
+      <c r="E24" s="126"/>
     </row>
     <row r="25" spans="2:20" ht="13.5">
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="114" t="s">
+      <c r="C25" s="124"/>
+      <c r="D25" s="125" t="s">
         <v>209</v>
       </c>
-      <c r="E25" s="115"/>
+      <c r="E25" s="126"/>
     </row>
     <row r="26" spans="2:20" ht="13.5">
-      <c r="B26" s="113" t="s">
+      <c r="B26" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="122">
+      <c r="C26" s="124"/>
+      <c r="D26" s="127">
         <f>D31*D33</f>
         <v>1500000</v>
       </c>
-      <c r="E26" s="123"/>
+      <c r="E26" s="128"/>
     </row>
     <row r="27" spans="2:20" ht="13.5">
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="124" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="114" t="s">
+      <c r="C27" s="124"/>
+      <c r="D27" s="125" t="s">
         <v>212</v>
       </c>
-      <c r="E27" s="115"/>
+      <c r="E27" s="126"/>
     </row>
     <row r="28" spans="2:20" ht="13.5">
-      <c r="B28" s="113" t="s">
+      <c r="B28" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="124">
+      <c r="C28" s="124"/>
+      <c r="D28" s="133">
         <v>43140</v>
       </c>
-      <c r="E28" s="115"/>
+      <c r="E28" s="126"/>
     </row>
     <row r="29" spans="2:20" ht="13.5">
-      <c r="B29" s="113" t="s">
+      <c r="B29" s="124" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="114">
+      <c r="C29" s="124"/>
+      <c r="D29" s="125">
         <v>3587</v>
       </c>
-      <c r="E29" s="115"/>
+      <c r="E29" s="126"/>
     </row>
     <row r="30" spans="2:20" ht="13.5">
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="124" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="114">
+      <c r="C30" s="124"/>
+      <c r="D30" s="125">
         <v>3650</v>
       </c>
-      <c r="E30" s="115"/>
+      <c r="E30" s="126"/>
     </row>
     <row r="31" spans="2:20" ht="13.5">
-      <c r="B31" s="113" t="s">
+      <c r="B31" s="124" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="113"/>
-      <c r="D31" s="114">
+      <c r="C31" s="124"/>
+      <c r="D31" s="125">
         <v>150</v>
       </c>
-      <c r="E31" s="115"/>
+      <c r="E31" s="126"/>
     </row>
     <row r="32" spans="2:20" ht="13.5">
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="114" t="s">
+      <c r="C32" s="124"/>
+      <c r="D32" s="125" t="s">
         <v>210</v>
       </c>
-      <c r="E32" s="115"/>
+      <c r="E32" s="126"/>
     </row>
     <row r="33" spans="2:5" ht="13.5">
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="113"/>
-      <c r="D33" s="122">
+      <c r="C33" s="124"/>
+      <c r="D33" s="127">
         <v>10000</v>
       </c>
-      <c r="E33" s="123"/>
+      <c r="E33" s="128"/>
     </row>
     <row r="34" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="119"/>
-      <c r="D34" s="111" t="s">
+      <c r="C34" s="129"/>
+      <c r="D34" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="E34" s="112"/>
+      <c r="E34" s="131"/>
     </row>
     <row r="35" spans="2:5" ht="12" thickTop="1"/>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -3277,29 +3343,82 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3334,11 +3453,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1"/>
     <row r="3" spans="1:21">
@@ -3562,8 +3681,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3587,10 +3706,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="121"/>
+      <c r="C1" s="138"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -3724,9 +3843,9 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="20" t="e">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3791</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -3752,32 +3871,32 @@
       <c r="O8" s="23">
         <v>0.3</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-125.53383160606654</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Q8" s="25">
         <v>80</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="24" t="e">
         <f t="shared" ref="R8:R9" si="4">Q8/10000*M8*H8</f>
-        <v>2.4927123287671233</v>
-      </c>
-      <c r="S8" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="S8" s="24" t="e">
         <f t="shared" ref="S8:S9" si="5">IF(P8&lt;=0,ABS(P8)+R8,P8-R8)</f>
-        <v>128.02654393483365</v>
-      </c>
-      <c r="T8" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T8" s="26" t="e">
         <f t="shared" ref="T8:T9" si="6">S8/H8</f>
-        <v>3.3771180146355488E-2</v>
-      </c>
-      <c r="U8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-0.50532550327488934</v>
-      </c>
-      <c r="V8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-4.3282474418227821</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -3875,9 +3994,9 @@
       <c r="G10" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="11" t="e">
         <f>RTD("wdf.rtq",,F10,"LastPrice")</f>
-        <v>3587</v>
+        <v>#N/A</v>
       </c>
       <c r="I10" s="10">
         <v>3400</v>
@@ -3903,32 +4022,32 @@
       <c r="O10" s="9">
         <v>0.2</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>56.752421119795713</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Q10" s="15">
         <v>0</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="13" t="e">
         <f t="shared" ref="R10" si="9">Q10/10000*M10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="S10" s="13" t="e">
         <f t="shared" ref="S10" si="10">IF(P10&lt;=0,ABS(P10)+R10,P10-R10)</f>
-        <v>56.752421119795713</v>
-      </c>
-      <c r="T10" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T10" s="14" t="e">
         <f t="shared" ref="T10" si="11">S10/H10</f>
-        <v>1.5821695321939146E-2</v>
-      </c>
-      <c r="U10" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U10" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>-0.26583536161979282</v>
-      </c>
-      <c r="V10" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V10" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>5.4609907836044727</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -3950,9 +4069,9 @@
       <c r="G11" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="11" t="e">
         <f>RTD("wdf.rtq",,F11,"LastPrice")</f>
-        <v>3587</v>
+        <v>#N/A</v>
       </c>
       <c r="I11" s="10">
         <v>3450</v>
@@ -3978,32 +4097,32 @@
       <c r="O11" s="9">
         <v>0.2</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>73.003313881057693</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Q11" s="15">
         <v>0</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11" s="13" t="e">
         <f t="shared" ref="R11:R12" si="14">Q11/10000*M11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="S11" s="13" t="e">
         <f t="shared" ref="S11:S12" si="15">IF(P11&lt;=0,ABS(P11)+R11,P11-R11)</f>
-        <v>73.003313881057693</v>
-      </c>
-      <c r="T11" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T11" s="14" t="e">
         <f t="shared" ref="T11:T12" si="16">S11/H11</f>
-        <v>2.0352192328145439E-2</v>
-      </c>
-      <c r="U11" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U11" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>-0.31956247004245597</v>
-      </c>
-      <c r="V11" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V11" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>5.9480705436518519</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -4025,9 +4144,9 @@
       <c r="G12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="11" t="e">
         <f>RTD("wdf.rtq",,F12,"LastPrice")</f>
-        <v>3587</v>
+        <v>#N/A</v>
       </c>
       <c r="I12" s="10">
         <v>3400</v>
@@ -4053,32 +4172,32 @@
       <c r="O12" s="9">
         <v>0.2</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G12,$H12,$I12,$M12,$C$3,$N12,$O12,$C$4)*E12</f>
-        <v>53.272040685930847</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Q12" s="15">
         <v>0</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="13" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="S12" s="13" t="e">
         <f t="shared" si="15"/>
-        <v>53.272040685930847</v>
-      </c>
-      <c r="T12" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T12" s="14" t="e">
         <f t="shared" si="16"/>
-        <v>1.4851419204329759E-2</v>
-      </c>
-      <c r="U12" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U12" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G12,$H12,$I12,$M12,$C$3,$N12,$O12,$C$4)*E12</f>
-        <v>-0.26016830270805258</v>
-      </c>
-      <c r="V12" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V12" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G12,$H12,$I12,$M12,$C$3,$N12,$O12,$C$4)*E12</f>
-        <v>5.2282339910042879</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -4100,9 +4219,9 @@
       <c r="G13" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="11" t="e">
         <f>RTD("wdf.rtq",,F13,"LastPrice")</f>
-        <v>3587</v>
+        <v>#N/A</v>
       </c>
       <c r="I13" s="10">
         <v>3450</v>
@@ -4128,32 +4247,32 @@
       <c r="O13" s="9">
         <v>0.2</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G13,$H13,$I13,$M13,$C$3,$N13,$O13,$C$4)*E13</f>
-        <v>69.206330602479738</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Q13" s="15">
         <v>0</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="13" t="e">
         <f t="shared" ref="R13:R14" si="19">Q13/10000*M13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="S13" s="13" t="e">
         <f t="shared" ref="S13:S14" si="20">IF(P13&lt;=0,ABS(P13)+R13,P13-R13)</f>
-        <v>69.206330602479738</v>
-      </c>
-      <c r="T13" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T13" s="14" t="e">
         <f t="shared" ref="T13:T14" si="21">S13/H13</f>
-        <v>1.9293652244906534E-2</v>
-      </c>
-      <c r="U13" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U13" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G13,$H13,$I13,$M13,$C$3,$N13,$O13,$C$4)*E13</f>
-        <v>-0.31523674426807702</v>
-      </c>
-      <c r="V13" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V13" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G13,$H13,$I13,$M13,$C$3,$N13,$O13,$C$4)*E13</f>
-        <v>5.724683942691513</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -4901,8 +5020,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4930,10 +5049,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="121"/>
+      <c r="C1" s="138"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="37" t="s">
@@ -5258,75 +5377,214 @@
     </row>
     <row r="11" spans="1:22" ht="13.5">
       <c r="A11" s="95"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="81"/>
+      <c r="B11" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="82">
+        <f>IF(D11="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="83">
+        <v>3791</v>
+      </c>
+      <c r="I11" s="83">
+        <f>H11</f>
+        <v>3791</v>
+      </c>
+      <c r="J11" s="84">
+        <f ca="1">TODAY()</f>
+        <v>43088</v>
+      </c>
+      <c r="K11" s="84">
+        <f ca="1">J11+L11</f>
+        <v>43119</v>
+      </c>
+      <c r="L11" s="82">
+        <v>31</v>
+      </c>
+      <c r="M11" s="85">
+        <f>L11/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="N11" s="85">
+        <v>0</v>
+      </c>
+      <c r="O11" s="86">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P11" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
+        <v>-123.16806313317488</v>
+      </c>
       <c r="Q11" s="87"/>
       <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
+      <c r="S11" s="81">
+        <f>P11+R11</f>
+        <v>-123.16806313317488</v>
+      </c>
       <c r="T11" s="88"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
+      <c r="U11" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
+        <v>0.48290660726024726</v>
+      </c>
+      <c r="V11" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
+        <v>-4.3964175212983037</v>
+      </c>
     </row>
     <row r="12" spans="1:22" ht="13.5">
       <c r="A12" s="95"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="81"/>
+      <c r="B12" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="82">
+        <f>IF(D12="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" s="83">
+        <v>3791</v>
+      </c>
+      <c r="I12" s="83">
+        <f>I11-500</f>
+        <v>3291</v>
+      </c>
+      <c r="J12" s="84">
+        <f t="shared" ref="J12:L12" ca="1" si="2">J11</f>
+        <v>43088</v>
+      </c>
+      <c r="K12" s="84">
+        <f t="shared" ca="1" si="2"/>
+        <v>43119</v>
+      </c>
+      <c r="L12" s="82">
+        <f>L11</f>
+        <v>31</v>
+      </c>
+      <c r="M12" s="85">
+        <f>L12/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="N12" s="85">
+        <f>N11</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="86">
+        <v>0.25</v>
+      </c>
+      <c r="P12" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G12,$H12,$I12,$M12,$C$3,$N12,$O12,$C$4)*E12</f>
+        <v>2.5479418729834862</v>
+      </c>
       <c r="Q12" s="87"/>
       <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
+      <c r="S12" s="81">
+        <f>P12+R12</f>
+        <v>2.5479418729834862</v>
+      </c>
       <c r="T12" s="88"/>
-      <c r="U12" s="81"/>
-      <c r="V12" s="81"/>
+      <c r="U12" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G12,$H12,$I12,$M12,$C$3,$N12,$O12,$C$4)*E12</f>
+        <v>-2.3938919981247864E-2</v>
+      </c>
+      <c r="V12" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G12,$H12,$I12,$M12,$C$3,$N12,$O12,$C$4)*E12</f>
+        <v>0.62293481137851359</v>
+      </c>
     </row>
     <row r="13" spans="1:22" ht="13.5">
       <c r="A13" s="95"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
+      <c r="B13" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="90" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
+      <c r="F13" s="90" t="str">
+        <f>F12</f>
+        <v>RB1805</v>
+      </c>
       <c r="G13" s="90"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="93"/>
+      <c r="H13" s="91">
+        <f>H12</f>
+        <v>3791</v>
+      </c>
+      <c r="I13" s="90" t="str">
+        <f>I11 &amp; "|" &amp; I12</f>
+        <v>3791|3291</v>
+      </c>
+      <c r="J13" s="92">
+        <f t="shared" ref="J13:L13" ca="1" si="3">J12</f>
+        <v>43088</v>
+      </c>
+      <c r="K13" s="92">
+        <f t="shared" ca="1" si="3"/>
+        <v>43119</v>
+      </c>
+      <c r="L13" s="90">
+        <f>L12</f>
+        <v>31</v>
+      </c>
+      <c r="M13" s="93">
+        <f>M12</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
       <c r="N13" s="93"/>
       <c r="O13" s="90"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
+      <c r="P13" s="89">
+        <f>P12+P11</f>
+        <v>-120.6201212601914</v>
+      </c>
+      <c r="Q13" s="90">
+        <v>0</v>
+      </c>
+      <c r="R13" s="89">
+        <f>Q13/10000*M13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="89">
+        <f>IF(P13&lt;=0,ABS(P13)+R13,P13-R13)</f>
+        <v>120.6201212601914</v>
+      </c>
+      <c r="T13" s="94">
+        <f>S13/H13</f>
+        <v>3.1817494397307147E-2</v>
+      </c>
+      <c r="U13" s="94">
+        <f t="shared" ref="U13:V13" si="4">U12+U11</f>
+        <v>0.45896768727899939</v>
+      </c>
+      <c r="V13" s="94">
+        <f t="shared" si="4"/>
+        <v>-3.7734827099197901</v>
+      </c>
     </row>
     <row r="14" spans="1:22" ht="13.5">
       <c r="A14" s="95"/>
@@ -6011,10 +6269,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="121"/>
+      <c r="C1" s="138"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -6160,9 +6418,9 @@
       <c r="G8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="20" t="e">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3791</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -6170,9 +6428,9 @@
       <c r="J8" s="19">
         <v>3890</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="19" t="e">
         <f>_xll.dnetDiscreteAdjustedBarrier($H8,$J8,$R8,1/365)</f>
-        <v>3925.7505698872742</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L8" s="66">
         <v>0.02</v>
@@ -6198,32 +6456,32 @@
       <c r="R8" s="23">
         <v>0.3</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="24" t="e">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-51.838026071547503</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="24" t="e">
         <f>T8/10000*P8*H8</f>
-        <v>2.4927123287671233</v>
-      </c>
-      <c r="V8" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="V8" s="24" t="e">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>54.33073840031463</v>
-      </c>
-      <c r="W8" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W8" s="26" t="e">
         <f>V8/H8</f>
-        <v>1.4331505776922878E-2</v>
-      </c>
-      <c r="X8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X8" s="24" t="e">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.16939374298807763</v>
-      </c>
-      <c r="Y8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y8" s="24" t="e">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.66077106988964474</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -7136,8 +7394,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7195,7 +7453,7 @@
       <c r="E3" s="106">
         <v>0.21</v>
       </c>
-      <c r="F3" s="129">
+      <c r="F3" s="109">
         <v>0.25</v>
       </c>
     </row>
@@ -7206,16 +7464,16 @@
       <c r="B4" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="130">
+      <c r="C4" s="110">
         <v>0.13750000000000001</v>
       </c>
-      <c r="D4" s="130">
+      <c r="D4" s="110">
         <v>0.1825</v>
       </c>
-      <c r="E4" s="130">
+      <c r="E4" s="110">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="111">
         <v>0.185</v>
       </c>
     </row>
@@ -7229,7 +7487,7 @@
       <c r="C5" s="107"/>
       <c r="D5" s="107"/>
       <c r="E5" s="107"/>
-      <c r="F5" s="132"/>
+      <c r="F5" s="112"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="100" t="s">
@@ -7238,16 +7496,16 @@
       <c r="B6" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="133">
+      <c r="C6" s="113">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D6" s="133">
+      <c r="D6" s="113">
         <v>0.35499999999999998</v>
       </c>
-      <c r="E6" s="133">
+      <c r="E6" s="113">
         <v>0.26500000000000001</v>
       </c>
-      <c r="F6" s="134">
+      <c r="F6" s="114">
         <v>0.315</v>
       </c>
     </row>
@@ -7267,7 +7525,7 @@
       <c r="E7" s="106">
         <v>0.155</v>
       </c>
-      <c r="F7" s="129">
+      <c r="F7" s="109">
         <v>0.19</v>
       </c>
     </row>
@@ -7278,16 +7536,16 @@
       <c r="B8" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="133">
+      <c r="C8" s="113">
         <v>0.32</v>
       </c>
-      <c r="D8" s="133">
+      <c r="D8" s="113">
         <v>0.44</v>
       </c>
-      <c r="E8" s="133">
+      <c r="E8" s="113">
         <v>0.32</v>
       </c>
-      <c r="F8" s="134">
+      <c r="F8" s="114">
         <v>0.42</v>
       </c>
     </row>
@@ -7307,7 +7565,7 @@
       <c r="E9" s="106">
         <v>0.32</v>
       </c>
-      <c r="F9" s="129">
+      <c r="F9" s="109">
         <v>0.42</v>
       </c>
     </row>
@@ -7318,16 +7576,16 @@
       <c r="B10" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="133">
+      <c r="C10" s="113">
         <v>0.24</v>
       </c>
-      <c r="D10" s="133">
+      <c r="D10" s="113">
         <v>0.32</v>
       </c>
-      <c r="E10" s="133">
+      <c r="E10" s="113">
         <v>0.27</v>
       </c>
-      <c r="F10" s="134">
+      <c r="F10" s="114">
         <v>0.34</v>
       </c>
     </row>
@@ -7347,7 +7605,7 @@
       <c r="E11" s="106">
         <v>0.32500000000000001</v>
       </c>
-      <c r="F11" s="129">
+      <c r="F11" s="109">
         <v>0.39500000000000002</v>
       </c>
     </row>
@@ -7358,16 +7616,16 @@
       <c r="B12" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="133">
+      <c r="C12" s="113">
         <v>0.215</v>
       </c>
-      <c r="D12" s="133">
+      <c r="D12" s="113">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E12" s="133">
+      <c r="E12" s="113">
         <v>0.23499999999999999</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="114">
         <v>0.30499999999999999</v>
       </c>
     </row>
@@ -7387,7 +7645,7 @@
       <c r="E13" s="106">
         <v>0.1</v>
       </c>
-      <c r="F13" s="129">
+      <c r="F13" s="109">
         <v>0.13</v>
       </c>
     </row>
@@ -7398,16 +7656,16 @@
       <c r="B14" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="130">
+      <c r="C14" s="110">
         <v>0.11</v>
       </c>
-      <c r="D14" s="130">
+      <c r="D14" s="110">
         <v>0.17</v>
       </c>
-      <c r="E14" s="130">
+      <c r="E14" s="110">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F14" s="111">
         <v>0.19500000000000001</v>
       </c>
     </row>
@@ -7421,7 +7679,7 @@
       <c r="C15" s="107"/>
       <c r="D15" s="107"/>
       <c r="E15" s="107"/>
-      <c r="F15" s="132"/>
+      <c r="F15" s="112"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="100" t="s">
@@ -7430,16 +7688,16 @@
       <c r="B16" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="133">
+      <c r="C16" s="113">
         <v>0.13</v>
       </c>
-      <c r="D16" s="133">
+      <c r="D16" s="113">
         <v>0.19</v>
       </c>
-      <c r="E16" s="133">
+      <c r="E16" s="113">
         <v>0.185</v>
       </c>
-      <c r="F16" s="134">
+      <c r="F16" s="114">
         <v>0.23499999999999999</v>
       </c>
     </row>
@@ -7450,16 +7708,16 @@
       <c r="B17" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="135">
+      <c r="C17" s="115">
         <v>0.14749999999999999</v>
       </c>
-      <c r="D17" s="135">
+      <c r="D17" s="115">
         <v>0.19750000000000001</v>
       </c>
-      <c r="E17" s="135">
+      <c r="E17" s="115">
         <v>0.16</v>
       </c>
-      <c r="F17" s="136">
+      <c r="F17" s="116">
         <v>0.21</v>
       </c>
     </row>
@@ -7470,10 +7728,10 @@
       <c r="B18" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="138"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
       <c r="A19" s="104" t="s">
@@ -7485,7 +7743,7 @@
       <c r="C19" s="107"/>
       <c r="D19" s="107"/>
       <c r="E19" s="107"/>
-      <c r="F19" s="132"/>
+      <c r="F19" s="112"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="100" t="s">
@@ -7494,16 +7752,16 @@
       <c r="B20" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="130">
+      <c r="C20" s="110">
         <v>0.09</v>
       </c>
-      <c r="D20" s="130">
+      <c r="D20" s="110">
         <v>0.17</v>
       </c>
-      <c r="E20" s="130">
+      <c r="E20" s="110">
         <v>0.11</v>
       </c>
-      <c r="F20" s="131">
+      <c r="F20" s="111">
         <v>0.19</v>
       </c>
     </row>
@@ -7517,7 +7775,7 @@
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
       <c r="E21" s="107"/>
-      <c r="F21" s="132"/>
+      <c r="F21" s="112"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1">
       <c r="A22" s="100" t="s">
@@ -7526,16 +7784,16 @@
       <c r="B22" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="133">
+      <c r="C22" s="113">
         <v>0.12</v>
       </c>
-      <c r="D22" s="133">
+      <c r="D22" s="113">
         <v>0.16</v>
       </c>
-      <c r="E22" s="133">
+      <c r="E22" s="113">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F22" s="134">
+      <c r="F22" s="114">
         <v>0.17</v>
       </c>
     </row>
@@ -7555,7 +7813,7 @@
       <c r="E23" s="106">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F23" s="129">
+      <c r="F23" s="109">
         <v>0.17499999999999999</v>
       </c>
     </row>
@@ -7566,16 +7824,16 @@
       <c r="B24" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="133">
+      <c r="C24" s="113">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="D24" s="133">
+      <c r="D24" s="113">
         <v>0.1225</v>
       </c>
-      <c r="E24" s="133">
+      <c r="E24" s="113">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F24" s="134">
+      <c r="F24" s="114">
         <v>0.125</v>
       </c>
     </row>
@@ -7595,7 +7853,7 @@
       <c r="E25" s="106">
         <v>0.105</v>
       </c>
-      <c r="F25" s="129">
+      <c r="F25" s="109">
         <v>0.155</v>
       </c>
     </row>
@@ -7606,16 +7864,16 @@
       <c r="B26" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="130">
+      <c r="C26" s="110">
         <v>0.2</v>
       </c>
-      <c r="D26" s="130">
+      <c r="D26" s="110">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E26" s="130">
+      <c r="E26" s="110">
         <v>0.2</v>
       </c>
-      <c r="F26" s="131">
+      <c r="F26" s="111">
         <v>0.27</v>
       </c>
     </row>
@@ -7626,10 +7884,10 @@
       <c r="B27" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="140"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="120"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="100" t="s">
@@ -7638,10 +7896,10 @@
       <c r="B28" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="122"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1">
       <c r="A29" s="104" t="s">
@@ -7659,7 +7917,7 @@
       <c r="E29" s="106">
         <v>0.22</v>
       </c>
-      <c r="F29" s="129">
+      <c r="F29" s="109">
         <v>0.27</v>
       </c>
     </row>
@@ -7670,16 +7928,16 @@
       <c r="B30" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="130">
+      <c r="C30" s="110">
         <v>0.19</v>
       </c>
-      <c r="D30" s="130">
+      <c r="D30" s="110">
         <v>0.23</v>
       </c>
-      <c r="E30" s="130">
+      <c r="E30" s="110">
         <v>0.2</v>
       </c>
-      <c r="F30" s="131">
+      <c r="F30" s="111">
         <v>0.24</v>
       </c>
     </row>
@@ -7693,7 +7951,7 @@
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
       <c r="E31" s="107"/>
-      <c r="F31" s="132"/>
+      <c r="F31" s="112"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
       <c r="A32" s="100" t="s">
@@ -7702,16 +7960,16 @@
       <c r="B32" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="133">
+      <c r="C32" s="113">
         <v>0.3</v>
       </c>
-      <c r="D32" s="133">
+      <c r="D32" s="113">
         <v>0.4</v>
       </c>
-      <c r="E32" s="133">
+      <c r="E32" s="113">
         <v>0.30499999999999999</v>
       </c>
-      <c r="F32" s="134">
+      <c r="F32" s="114">
         <v>0.39500000000000002</v>
       </c>
     </row>
@@ -7731,7 +7989,7 @@
       <c r="E33" s="106">
         <v>0.13</v>
       </c>
-      <c r="F33" s="129">
+      <c r="F33" s="109">
         <v>0.17</v>
       </c>
     </row>
@@ -7961,10 +8219,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="128"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -8094,9 +8352,9 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="20" t="e">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3791</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -8119,32 +8377,32 @@
       <c r="N8" s="23">
         <v>0.3</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>127.11494976783001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="24" t="e">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.4927123287671233</v>
-      </c>
-      <c r="R8" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="24" t="e">
         <f>O8+Q8</f>
-        <v>129.60766209659712</v>
-      </c>
-      <c r="S8" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S8" s="26" t="e">
         <f>R8/H8</f>
-        <v>3.4188251674122164E-2</v>
-      </c>
-      <c r="T8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.50954952520214647</v>
-      </c>
-      <c r="U8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>4.330970806200753</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:21">
